--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP - i5\OneDrive - University Collage of Matara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E73EAA7-AD74-4118-9EAC-32D452215FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBD146D-6FBD-4A3B-81B5-03CD331B9FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="3555" windowWidth="14940" windowHeight="8295" xr2:uid="{EE740247-5858-4F96-A1EC-98B9FE2EAA03}"/>
+    <workbookView xWindow="5505" yWindow="2775" windowWidth="14940" windowHeight="8295" xr2:uid="{EE740247-5858-4F96-A1EC-98B9FE2EAA03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Job Number</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Job State</t>
+  </si>
+  <si>
+    <t>Job In Time</t>
+  </si>
+  <si>
+    <t>Job Out Time</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +403,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A646738-827A-42E4-B0D5-D93A28605967}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>